--- a/data/pca/factorExposure/factorExposure_2017-09-08.xlsx
+++ b/data/pca/factorExposure/factorExposure_2017-09-08.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -26,6 +26,12 @@
   </si>
   <si>
     <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -692,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,61 +717,85 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>0.02363784034345729</v>
+        <v>-0.007028923558915702</v>
       </c>
       <c r="C2">
-        <v>-0.001052483203003481</v>
+        <v>0.04118062885732124</v>
       </c>
       <c r="D2">
-        <v>0.01569086751136608</v>
+        <v>0.02957992845181482</v>
       </c>
       <c r="E2">
-        <v>0.008250080729351562</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>0.03302621567859666</v>
+      </c>
+      <c r="F2">
+        <v>-0.02686782070612212</v>
+      </c>
+      <c r="G2">
+        <v>-0.03605214684333339</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>0.01370656117730067</v>
+        <v>-0.05158227822371913</v>
       </c>
       <c r="C3">
-        <v>-0.04817014683996965</v>
+        <v>0.07524808054794523</v>
       </c>
       <c r="D3">
-        <v>0.004967090004111361</v>
+        <v>0.01483030399710117</v>
       </c>
       <c r="E3">
-        <v>0.00163349384297661</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>0.08989101784277109</v>
+      </c>
+      <c r="F3">
+        <v>-0.06307375573816983</v>
+      </c>
+      <c r="G3">
+        <v>-0.08402983985435773</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>0.02213573441880145</v>
+        <v>-0.05493390354407474</v>
       </c>
       <c r="C4">
-        <v>-0.01657214173159178</v>
+        <v>0.06234590332615952</v>
       </c>
       <c r="D4">
-        <v>0.06164554473683398</v>
+        <v>0.02327683413464166</v>
       </c>
       <c r="E4">
-        <v>-0.01810687360335908</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>0.01809859174674099</v>
+      </c>
+      <c r="F4">
+        <v>-0.01089323858879556</v>
+      </c>
+      <c r="G4">
+        <v>-0.05675273383761857</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -779,163 +809,223 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>0.01514490016025035</v>
+        <v>-0.03652439267446181</v>
       </c>
       <c r="C6">
-        <v>-0.01860362909080034</v>
+        <v>0.0487336686011939</v>
       </c>
       <c r="D6">
-        <v>0.0773198127255191</v>
+        <v>0.01551635014908547</v>
       </c>
       <c r="E6">
-        <v>-0.00945121447859305</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>0.01666757950050672</v>
+      </c>
+      <c r="F6">
+        <v>-0.01395711823358725</v>
+      </c>
+      <c r="G6">
+        <v>-0.03567897998666814</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>0.009906434015403469</v>
+        <v>-0.01527720351125128</v>
       </c>
       <c r="C7">
-        <v>-0.0007769885670392647</v>
+        <v>0.03499734743294781</v>
       </c>
       <c r="D7">
-        <v>0.03029993372885807</v>
+        <v>0.01336071995672586</v>
       </c>
       <c r="E7">
-        <v>-0.07328452992940281</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>-0.007523041694085541</v>
+      </c>
+      <c r="F7">
+        <v>-0.009682446365568422</v>
+      </c>
+      <c r="G7">
+        <v>-0.09201057094837017</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.0003482275535677591</v>
+        <v>0.002154012583367752</v>
       </c>
       <c r="C8">
-        <v>0.003739484762871219</v>
+        <v>0.01835899900938071</v>
       </c>
       <c r="D8">
-        <v>0.003777671333610571</v>
+        <v>0.003925306170860136</v>
       </c>
       <c r="E8">
-        <v>-0.008989292927739213</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>0.023084800088295</v>
+      </c>
+      <c r="F8">
+        <v>-0.02586907045902177</v>
+      </c>
+      <c r="G8">
+        <v>-0.02774567681755427</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>0.01494492602875394</v>
+        <v>-0.03096416580565715</v>
       </c>
       <c r="C9">
-        <v>-0.01617202254130687</v>
+        <v>0.04293006561048178</v>
       </c>
       <c r="D9">
-        <v>0.04714964699732547</v>
+        <v>0.01605612076102185</v>
       </c>
       <c r="E9">
-        <v>-0.00785049395211394</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>0.01389115192317936</v>
+      </c>
+      <c r="F9">
+        <v>-0.01724743620278184</v>
+      </c>
+      <c r="G9">
+        <v>-0.04850286057093802</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>0.01314459823284935</v>
+        <v>-0.093178910406349</v>
       </c>
       <c r="C10">
-        <v>-0.161965816904364</v>
+        <v>-0.1846873704740395</v>
       </c>
       <c r="D10">
-        <v>-0.1206232255875784</v>
+        <v>-0.01770540759445627</v>
       </c>
       <c r="E10">
-        <v>-0.009711378863825927</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>0.01158285553470096</v>
+      </c>
+      <c r="F10">
+        <v>0.01572644307482032</v>
+      </c>
+      <c r="G10">
+        <v>-0.04714500370375822</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>0.0002599489410589217</v>
+        <v>-0.03071918085412308</v>
       </c>
       <c r="C11">
-        <v>-0.00622251992387543</v>
+        <v>0.05344850106040862</v>
       </c>
       <c r="D11">
-        <v>0.04356056597259009</v>
+        <v>0.002388492830466013</v>
       </c>
       <c r="E11">
-        <v>0.007072979823482705</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>0.00783365572770312</v>
+      </c>
+      <c r="F11">
+        <v>-0.02617849711307923</v>
+      </c>
+      <c r="G11">
+        <v>-0.03075314120424076</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>0.005651176256861838</v>
+        <v>-0.03056484379230213</v>
       </c>
       <c r="C12">
-        <v>-0.01408764754803793</v>
+        <v>0.04617885071157523</v>
       </c>
       <c r="D12">
-        <v>0.04479554714450896</v>
+        <v>0.006380499279104441</v>
       </c>
       <c r="E12">
-        <v>-0.002348565362891084</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>-0.0003289213170411361</v>
+      </c>
+      <c r="F12">
+        <v>-0.01041199065906529</v>
+      </c>
+      <c r="G12">
+        <v>-0.03322373493264583</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>0.0214840678276156</v>
+        <v>-0.01458787881378498</v>
       </c>
       <c r="C13">
-        <v>-0.01227203927426552</v>
+        <v>0.03146636178949586</v>
       </c>
       <c r="D13">
-        <v>0.01324568167329643</v>
+        <v>0.02502942913452193</v>
       </c>
       <c r="E13">
-        <v>0.006580394703026507</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>0.02386903019302831</v>
+      </c>
+      <c r="F13">
+        <v>-0.01787818588752154</v>
+      </c>
+      <c r="G13">
+        <v>-0.04563459594649996</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>0.007055122577689528</v>
+        <v>-0.007726971185992365</v>
       </c>
       <c r="C14">
-        <v>-0.0120818693458721</v>
+        <v>0.02560844295287383</v>
       </c>
       <c r="D14">
-        <v>0.01490627542324794</v>
+        <v>0.008668598080493981</v>
       </c>
       <c r="E14">
-        <v>-0.01262396903754646</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>-0.004611160081562367</v>
+      </c>
+      <c r="F14">
+        <v>0.000108455188087996</v>
+      </c>
+      <c r="G14">
+        <v>-0.04998073389142946</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -949,27 +1039,39 @@
       <c r="E15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>0.0008499935656428264</v>
+        <v>-0.03033462026041152</v>
       </c>
       <c r="C16">
-        <v>-0.01315851547596786</v>
+        <v>0.04409582583473515</v>
       </c>
       <c r="D16">
-        <v>0.04553425021267572</v>
+        <v>0.001826487878920362</v>
       </c>
       <c r="E16">
-        <v>-0.0003822323992205568</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>0.007654595528258539</v>
+      </c>
+      <c r="F16">
+        <v>-0.01358268570519947</v>
+      </c>
+      <c r="G16">
+        <v>-0.03174115866346842</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -983,10 +1085,16 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1000,61 +1108,85 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>0.01321788812804797</v>
+        <v>-0.02350775915917209</v>
       </c>
       <c r="C19">
-        <v>-0.02437536874744059</v>
+        <v>0.04686375525604192</v>
       </c>
       <c r="D19">
-        <v>0.01913820982226547</v>
+        <v>0.01639988530345089</v>
       </c>
       <c r="E19">
-        <v>-0.005185787054269391</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>0.05649691403253519</v>
+      </c>
+      <c r="F19">
+        <v>-0.03246387463952705</v>
+      </c>
+      <c r="G19">
+        <v>-0.05668415753919404</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>0.009998527101474898</v>
+        <v>-0.01171389699442507</v>
       </c>
       <c r="C20">
-        <v>-0.003887427910437888</v>
+        <v>0.03305227647214642</v>
       </c>
       <c r="D20">
-        <v>0.01136283428378139</v>
+        <v>0.0132262883245943</v>
       </c>
       <c r="E20">
-        <v>-0.0006579158503876174</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>0.02524763946854995</v>
+      </c>
+      <c r="F20">
+        <v>-0.003099544087346306</v>
+      </c>
+      <c r="G20">
+        <v>-0.04771619639459799</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>0.0142422674532882</v>
+        <v>-0.01367139669021524</v>
       </c>
       <c r="C21">
-        <v>-0.02935611250349376</v>
+        <v>0.03557151582980771</v>
       </c>
       <c r="D21">
-        <v>0.01993018469884195</v>
+        <v>0.0166262345755966</v>
       </c>
       <c r="E21">
-        <v>-0.01969377472859626</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>0.03152690415593463</v>
+      </c>
+      <c r="F21">
+        <v>-0.01011872205255523</v>
+      </c>
+      <c r="G21">
+        <v>-0.06922550728199037</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1068,10 +1200,16 @@
       <c r="E22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1085,61 +1223,85 @@
       <c r="E23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>0.004757752951286565</v>
+        <v>-0.02421299100322767</v>
       </c>
       <c r="C24">
-        <v>-0.004427609683215693</v>
+        <v>0.04721097539357656</v>
       </c>
       <c r="D24">
-        <v>0.04290189751795417</v>
+        <v>0.007276838644656353</v>
       </c>
       <c r="E24">
-        <v>0.001593705290404784</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>0.004068950892228767</v>
+      </c>
+      <c r="F24">
+        <v>-0.02329402349095632</v>
+      </c>
+      <c r="G24">
+        <v>-0.03329116452690174</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>0.01144106580888868</v>
+        <v>-0.03878546931110508</v>
       </c>
       <c r="C25">
-        <v>-0.02160877869575198</v>
+        <v>0.05509988848589484</v>
       </c>
       <c r="D25">
-        <v>0.04336174799962522</v>
+        <v>0.01141712032316279</v>
       </c>
       <c r="E25">
-        <v>0.0009862167555854543</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>-0.003252327557631097</v>
+      </c>
+      <c r="F25">
+        <v>-0.01878086136972418</v>
+      </c>
+      <c r="G25">
+        <v>-0.0397859304620409</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>0.0226703143819432</v>
+        <v>-0.01188318413783381</v>
       </c>
       <c r="C26">
-        <v>-0.009806628118517019</v>
+        <v>0.00882434445539514</v>
       </c>
       <c r="D26">
-        <v>-0.006643829685402581</v>
+        <v>0.02345788792272271</v>
       </c>
       <c r="E26">
-        <v>-0.009173857420555605</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>0.003783555577764975</v>
+      </c>
+      <c r="F26">
+        <v>-0.001233064913722747</v>
+      </c>
+      <c r="G26">
+        <v>-0.03719053802314924</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1153,129 +1315,177 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>0.03270098435442671</v>
+        <v>-0.1202981379452949</v>
       </c>
       <c r="C28">
-        <v>-0.2379606916382432</v>
+        <v>-0.2307084126135178</v>
       </c>
       <c r="D28">
-        <v>-0.1692568026606409</v>
+        <v>-0.008775781630217938</v>
       </c>
       <c r="E28">
-        <v>-0.01638628291129035</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>-0.0001934649553690908</v>
+      </c>
+      <c r="F28">
+        <v>0.01429687458437028</v>
+      </c>
+      <c r="G28">
+        <v>-0.06448643359943486</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>0.007347015825551851</v>
+        <v>-0.01063974374543527</v>
       </c>
       <c r="C29">
-        <v>-0.01766589766242134</v>
+        <v>0.01962153852839694</v>
       </c>
       <c r="D29">
-        <v>0.01107710022203296</v>
+        <v>0.007438368924172711</v>
       </c>
       <c r="E29">
-        <v>-0.00722484338607089</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>-0.007107742160865171</v>
+      </c>
+      <c r="F29">
+        <v>0.009188783138532662</v>
+      </c>
+      <c r="G29">
+        <v>-0.04037411886029697</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>0.02282958247992653</v>
+        <v>-0.04388929100679894</v>
       </c>
       <c r="C30">
-        <v>0.0006387109118366199</v>
+        <v>0.06384031066152838</v>
       </c>
       <c r="D30">
-        <v>0.06670390228031664</v>
+        <v>0.02769953431904038</v>
       </c>
       <c r="E30">
-        <v>0.05507901703397024</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>0.04343894743886534</v>
+      </c>
+      <c r="F30">
+        <v>-0.05641082035453771</v>
+      </c>
+      <c r="G30">
+        <v>-0.01975468332602845</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>0.007807049927650347</v>
+        <v>-0.04962220873691323</v>
       </c>
       <c r="C31">
-        <v>-0.04359360219211764</v>
+        <v>0.03343985052934451</v>
       </c>
       <c r="D31">
-        <v>0.04339126536449613</v>
+        <v>0.003549925111150765</v>
       </c>
       <c r="E31">
-        <v>-0.00965223508128301</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>-0.003461805679726444</v>
+      </c>
+      <c r="F31">
+        <v>0.02930726065204027</v>
+      </c>
+      <c r="G31">
+        <v>-0.0402901723233604</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>-0.007217117504529725</v>
+        <v>0.003128107048709288</v>
       </c>
       <c r="C32">
-        <v>-0.01762618937831455</v>
+        <v>0.03167740999276008</v>
       </c>
       <c r="D32">
-        <v>-0.00294417465131835</v>
+        <v>-0.004025232300093605</v>
       </c>
       <c r="E32">
-        <v>-0.03110016989786099</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>0.01349507224861998</v>
+      </c>
+      <c r="F32">
+        <v>-0.05471080901547964</v>
+      </c>
+      <c r="G32">
+        <v>-0.06033006019472013</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>0.01230972121195443</v>
+        <v>-0.02635155690536306</v>
       </c>
       <c r="C33">
-        <v>-0.02204123413277377</v>
+        <v>0.04623027727635707</v>
       </c>
       <c r="D33">
-        <v>0.02221092149411067</v>
+        <v>0.01457683996972831</v>
       </c>
       <c r="E33">
-        <v>0.02243645740806031</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>0.02795728649065756</v>
+      </c>
+      <c r="F33">
+        <v>-0.03085556104324821</v>
+      </c>
+      <c r="G33">
+        <v>-0.04870630431004087</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>-0.004738247354126997</v>
+        <v>-0.03813202173499969</v>
       </c>
       <c r="C34">
-        <v>-0.01953372796961919</v>
+        <v>0.05756686547447881</v>
       </c>
       <c r="D34">
-        <v>0.04683838133641295</v>
+        <v>-0.004413562249442862</v>
       </c>
       <c r="E34">
-        <v>-0.007732753651473518</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>-0.003355186444245194</v>
+      </c>
+      <c r="F34">
+        <v>-0.0285996088112793</v>
+      </c>
+      <c r="G34">
+        <v>-0.04424152361224977</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1289,27 +1499,39 @@
       <c r="E35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:5">
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>0.0119731402241363</v>
+        <v>-0.01174680801207787</v>
       </c>
       <c r="C36">
-        <v>-0.01841862877419415</v>
+        <v>0.00733662438390303</v>
       </c>
       <c r="D36">
-        <v>0.001154975676271759</v>
+        <v>0.01150824407461112</v>
       </c>
       <c r="E36">
-        <v>-0.004044881433752609</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>0.001210013503996104</v>
+      </c>
+      <c r="F36">
+        <v>0.002611193351672464</v>
+      </c>
+      <c r="G36">
+        <v>-0.03311285002539643</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1323,129 +1545,177 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>-0.005122022711390507</v>
+        <v>-0.03116354961350921</v>
       </c>
       <c r="C38">
-        <v>-0.03268769488061942</v>
+        <v>0.02807195889242634</v>
       </c>
       <c r="D38">
-        <v>0.02403510534834202</v>
+        <v>-0.007382395250017489</v>
       </c>
       <c r="E38">
-        <v>-0.0008701260036294213</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>0.006380026359045177</v>
+      </c>
+      <c r="F38">
+        <v>0.005176521253116141</v>
+      </c>
+      <c r="G38">
+        <v>-0.04123038916531557</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>0.005750263051378823</v>
+        <v>-0.03092192937739168</v>
       </c>
       <c r="C39">
-        <v>0.01673411872668992</v>
+        <v>0.08006685517999294</v>
       </c>
       <c r="D39">
-        <v>0.09216650703909729</v>
+        <v>0.01219839126594287</v>
       </c>
       <c r="E39">
-        <v>0.005119494849107149</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>0.02345553417410976</v>
+      </c>
+      <c r="F39">
+        <v>-0.04208757428244665</v>
+      </c>
+      <c r="G39">
+        <v>-0.03454465270419607</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>0.0100438348139017</v>
+        <v>-0.01899274326358443</v>
       </c>
       <c r="C40">
-        <v>-0.01027182833357415</v>
+        <v>0.03182158362510829</v>
       </c>
       <c r="D40">
-        <v>0.03642694827757867</v>
+        <v>0.01328495491787207</v>
       </c>
       <c r="E40">
-        <v>0.002269876596392117</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>0.02020014462196612</v>
+      </c>
+      <c r="F40">
+        <v>-0.02204255930570045</v>
+      </c>
+      <c r="G40">
+        <v>-0.03396736648464761</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>0.005331152462556408</v>
+        <v>-0.01062060245552686</v>
       </c>
       <c r="C41">
-        <v>-0.02063988476197176</v>
+        <v>0.0004651841228761221</v>
       </c>
       <c r="D41">
-        <v>-0.00970281832378706</v>
+        <v>0.004036966029806227</v>
       </c>
       <c r="E41">
-        <v>-0.003072407418417446</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>-0.0005699158449889715</v>
+      </c>
+      <c r="F41">
+        <v>-0.002250018419770414</v>
+      </c>
+      <c r="G41">
+        <v>-0.02310044898400895</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B42">
-        <v>0.09282770719745072</v>
+        <v>-0.01431053804409988</v>
       </c>
       <c r="C42">
-        <v>0.008677458982087168</v>
+        <v>0.04235247485614269</v>
       </c>
       <c r="D42">
-        <v>0.2783506116451135</v>
+        <v>0.09454680340074595</v>
       </c>
       <c r="E42">
-        <v>0.2638561126908149</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
+        <v>0.03602449618493026</v>
+      </c>
+      <c r="F42">
+        <v>0.04857933094368954</v>
+      </c>
+      <c r="G42">
+        <v>0.1559061365648456</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>0.006468698580550501</v>
+        <v>-0.02787607250314302</v>
       </c>
       <c r="C43">
-        <v>-0.0225341545167599</v>
+        <v>0.01165119965558754</v>
       </c>
       <c r="D43">
-        <v>-0.01436004819486602</v>
+        <v>0.004805879110669212</v>
       </c>
       <c r="E43">
-        <v>0.003018709898874472</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>0.008740209997643423</v>
+      </c>
+      <c r="F43">
+        <v>-0.001036936201471944</v>
+      </c>
+      <c r="G43">
+        <v>-0.03366944537991913</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>0.002917095774288763</v>
+        <v>-0.01350460198842127</v>
       </c>
       <c r="C44">
-        <v>-0.002766766222976153</v>
+        <v>0.04820578909146914</v>
       </c>
       <c r="D44">
-        <v>0.02620394831934045</v>
+        <v>0.00648386421251122</v>
       </c>
       <c r="E44">
-        <v>-0.004612152812206529</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>0.01767773580872987</v>
+      </c>
+      <c r="F44">
+        <v>-0.007725770829209314</v>
+      </c>
+      <c r="G44">
+        <v>-0.051231564609789</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1459,61 +1729,85 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>0.01059088210460542</v>
+        <v>-0.004577659463878912</v>
       </c>
       <c r="C46">
-        <v>-0.01700881244930522</v>
+        <v>0.01661061914642558</v>
       </c>
       <c r="D46">
-        <v>0.01009448904307359</v>
+        <v>0.01159969678611145</v>
       </c>
       <c r="E46">
-        <v>-0.002587341911182017</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>-0.004284428645784106</v>
+      </c>
+      <c r="F46">
+        <v>0.01217522425890383</v>
+      </c>
+      <c r="G46">
+        <v>-0.03715327369415463</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>0.00187182180206001</v>
+        <v>-0.07489348388554136</v>
       </c>
       <c r="C47">
-        <v>-0.05470885100964406</v>
+        <v>0.06578767575191087</v>
       </c>
       <c r="D47">
-        <v>0.05549715983061896</v>
+        <v>-0.00465221352499583</v>
       </c>
       <c r="E47">
-        <v>0.0003814191608630959</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>-0.007129317751379084</v>
+      </c>
+      <c r="F47">
+        <v>0.04855744290082149</v>
+      </c>
+      <c r="G47">
+        <v>-0.0383358590456084</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>0.002851185278952665</v>
+        <v>-0.02011763533542172</v>
       </c>
       <c r="C48">
-        <v>-0.02669424755000327</v>
+        <v>0.009623208988351362</v>
       </c>
       <c r="D48">
-        <v>0.0109407165940897</v>
+        <v>0.000842318996685691</v>
       </c>
       <c r="E48">
-        <v>-0.002996119239773117</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>-0.003323556809959537</v>
+      </c>
+      <c r="F48">
+        <v>0.01187235237385906</v>
+      </c>
+      <c r="G48">
+        <v>-0.03899441240612982</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1527,44 +1821,62 @@
       <c r="E49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>0.002679140247479154</v>
+        <v>-0.07797985143818542</v>
       </c>
       <c r="C50">
-        <v>-0.04502966347103118</v>
+        <v>0.06782884041162486</v>
       </c>
       <c r="D50">
-        <v>0.06098380613450239</v>
+        <v>-0.003031534818821047</v>
       </c>
       <c r="E50">
-        <v>-0.0269148620871845</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>-0.01066806067410974</v>
+      </c>
+      <c r="F50">
+        <v>0.04985643788566335</v>
+      </c>
+      <c r="G50">
+        <v>-0.0626761713340335</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>0.007108362574564791</v>
+        <v>-0.01034814377587424</v>
       </c>
       <c r="C51">
-        <v>-0.01733934235660356</v>
+        <v>0.02691197568165288</v>
       </c>
       <c r="D51">
-        <v>-0.009288314379927895</v>
+        <v>0.009521698503808329</v>
       </c>
       <c r="E51">
-        <v>-0.01087458043942104</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>0.0129903932457098</v>
+      </c>
+      <c r="F51">
+        <v>-0.02480769178747899</v>
+      </c>
+      <c r="G51">
+        <v>-0.065569412988641</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1578,163 +1890,223 @@
       <c r="E52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>0.00479631570731884</v>
+        <v>-0.08163193372295777</v>
       </c>
       <c r="C53">
-        <v>-0.06994323650381694</v>
+        <v>0.08053874984041366</v>
       </c>
       <c r="D53">
-        <v>0.1157325952794418</v>
+        <v>-0.004026826633799506</v>
       </c>
       <c r="E53">
-        <v>-0.009790623813655896</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>-0.0318153251152687</v>
+      </c>
+      <c r="F53">
+        <v>0.0544422882770426</v>
+      </c>
+      <c r="G53">
+        <v>-0.04144238940498315</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>-0.0003842157981456992</v>
+        <v>-0.0305776449131306</v>
       </c>
       <c r="C54">
-        <v>-0.03562525199390407</v>
+        <v>0.01180687005424796</v>
       </c>
       <c r="D54">
-        <v>-0.008510864771488443</v>
+        <v>-0.002821234301473549</v>
       </c>
       <c r="E54">
-        <v>-0.01053620417830495</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>0.002179328401249847</v>
+      </c>
+      <c r="F54">
+        <v>0.001079843373923164</v>
+      </c>
+      <c r="G54">
+        <v>-0.04230753806478842</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>0.002121101151390986</v>
+        <v>-0.06965741755262185</v>
       </c>
       <c r="C55">
-        <v>-0.05049572489777919</v>
+        <v>0.07265094745656812</v>
       </c>
       <c r="D55">
-        <v>0.100742314236346</v>
+        <v>-0.004440553280164505</v>
       </c>
       <c r="E55">
-        <v>0.002831966887723011</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>-0.02328069496178677</v>
+      </c>
+      <c r="F55">
+        <v>0.05260014696834869</v>
+      </c>
+      <c r="G55">
+        <v>-0.0221744575843919</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>0.002428876134651538</v>
+        <v>-0.1402873690398259</v>
       </c>
       <c r="C56">
-        <v>-0.0934844472539446</v>
+        <v>0.1066546845190621</v>
       </c>
       <c r="D56">
-        <v>0.1487799044791147</v>
+        <v>-0.01248126204204505</v>
       </c>
       <c r="E56">
-        <v>0.0004975462481945919</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>-0.03637918049132063</v>
+      </c>
+      <c r="F56">
+        <v>0.07937070841683568</v>
+      </c>
+      <c r="G56">
+        <v>-0.01234500231554413</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>0.02379128207678878</v>
+        <v>-0.009569745360290375</v>
       </c>
       <c r="C57">
-        <v>-0.02325143018971098</v>
+        <v>0.009924942257727127</v>
       </c>
       <c r="D57">
-        <v>0.03988769142333423</v>
+        <v>0.02359224551340766</v>
       </c>
       <c r="E57">
-        <v>0.001661223755195221</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
+        <v>0.02670405681240334</v>
+      </c>
+      <c r="F57">
+        <v>-0.01536311720545459</v>
+      </c>
+      <c r="G57">
+        <v>-0.02372452941514466</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>0.01011023807027891</v>
+        <v>-0.08112442589379032</v>
       </c>
       <c r="C58">
-        <v>-0.0889240663851725</v>
+        <v>0.03703559731903333</v>
       </c>
       <c r="D58">
-        <v>0.08851012372155941</v>
+        <v>0.01627431938847234</v>
       </c>
       <c r="E58">
-        <v>0.2023867729537994</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>0.9480095907278977</v>
+      </c>
+      <c r="F58">
+        <v>0.2126284962857364</v>
+      </c>
+      <c r="G58">
+        <v>0.008256481868557656</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>0.02873915805802578</v>
+        <v>-0.160620342961365</v>
       </c>
       <c r="C59">
-        <v>-0.2504035291273405</v>
+        <v>-0.2120389679812651</v>
       </c>
       <c r="D59">
-        <v>-0.1711431111346596</v>
+        <v>-0.01605405401386525</v>
       </c>
       <c r="E59">
-        <v>0.007176783620463112</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>0.004112576421117148</v>
+      </c>
+      <c r="F59">
+        <v>-0.001023868961065773</v>
+      </c>
+      <c r="G59">
+        <v>-0.02125136843312087</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>0.03305670210995807</v>
+        <v>-0.287172424519307</v>
       </c>
       <c r="C60">
-        <v>-0.1588822495735065</v>
+        <v>0.1036137589517135</v>
       </c>
       <c r="D60">
-        <v>0.08989878755251661</v>
+        <v>0.01122966833051724</v>
       </c>
       <c r="E60">
-        <v>0.04087544999038866</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>-0.009492052057492375</v>
+      </c>
+      <c r="F60">
+        <v>-0.3494910008749609</v>
+      </c>
+      <c r="G60">
+        <v>0.1039110688552356</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>0.003142129162950327</v>
+        <v>-0.03280417473006185</v>
       </c>
       <c r="C61">
-        <v>-0.008776010483631733</v>
+        <v>0.06518766302895966</v>
       </c>
       <c r="D61">
-        <v>0.06550299874719825</v>
+        <v>0.005572286236981956</v>
       </c>
       <c r="E61">
-        <v>0.001803696837964506</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>0.01123439960896027</v>
+      </c>
+      <c r="F61">
+        <v>-0.0249873314667821</v>
+      </c>
+      <c r="G61">
+        <v>-0.03266310473992592</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1748,129 +2120,177 @@
       <c r="E62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>0.007222170300149517</v>
+        <v>-0.01235724886699298</v>
       </c>
       <c r="C63">
-        <v>-0.007841719437863196</v>
+        <v>0.02780513087477502</v>
       </c>
       <c r="D63">
-        <v>0.006393767356604855</v>
+        <v>0.008129141995859264</v>
       </c>
       <c r="E63">
-        <v>-0.009780153283708857</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>-0.003491433300756248</v>
+      </c>
+      <c r="F63">
+        <v>0.01291071751566219</v>
+      </c>
+      <c r="G63">
+        <v>-0.0453505739686216</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>0.007312038494331802</v>
+        <v>-0.05017357905843419</v>
       </c>
       <c r="C64">
-        <v>-0.02881516565075229</v>
+        <v>0.04205312297407039</v>
       </c>
       <c r="D64">
-        <v>0.06356923422470273</v>
+        <v>0.005677318744339526</v>
       </c>
       <c r="E64">
-        <v>0.008694911165516494</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>-0.004220158370108781</v>
+      </c>
+      <c r="F64">
+        <v>-0.008403136204986856</v>
+      </c>
+      <c r="G64">
+        <v>-0.03031180977740656</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>0.017461063924813</v>
+        <v>-0.08393683641687598</v>
       </c>
       <c r="C65">
-        <v>-0.02329803625330826</v>
+        <v>0.05990958560410502</v>
       </c>
       <c r="D65">
-        <v>0.09019615840077719</v>
+        <v>0.01491954403826451</v>
       </c>
       <c r="E65">
-        <v>-0.008061212323815065</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>0.01670080225061661</v>
+      </c>
+      <c r="F65">
+        <v>-0.03398317828383491</v>
+      </c>
+      <c r="G65">
+        <v>-0.01840964707582922</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>0.005455712247267854</v>
+        <v>-0.04901929659623346</v>
       </c>
       <c r="C66">
-        <v>0.008048967331211826</v>
+        <v>0.1130539557801895</v>
       </c>
       <c r="D66">
-        <v>0.1190187600421427</v>
+        <v>0.01216536360023773</v>
       </c>
       <c r="E66">
-        <v>0.01828477164889781</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>0.02910895010551915</v>
+      </c>
+      <c r="F66">
+        <v>-0.05209650145880636</v>
+      </c>
+      <c r="G66">
+        <v>-0.02959078316625466</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>0.0004604890518305967</v>
+        <v>-0.05336824373379591</v>
       </c>
       <c r="C67">
-        <v>-0.05156258385727033</v>
+        <v>0.03262044210121506</v>
       </c>
       <c r="D67">
-        <v>0.02888135125419554</v>
+        <v>-0.005423026209212599</v>
       </c>
       <c r="E67">
-        <v>0.001024217685667186</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>-8.830437290084327e-05</v>
+      </c>
+      <c r="F67">
+        <v>0.008861045015787302</v>
+      </c>
+      <c r="G67">
+        <v>-0.03851520212735951</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>0.04716979141638185</v>
+        <v>-0.1435369445076588</v>
       </c>
       <c r="C68">
-        <v>-0.2285952083455943</v>
+        <v>-0.2704035845491802</v>
       </c>
       <c r="D68">
-        <v>-0.1582909032023603</v>
+        <v>0.002246428679020323</v>
       </c>
       <c r="E68">
-        <v>0.01376746136246745</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>0.005604657775592006</v>
+      </c>
+      <c r="F68">
+        <v>0.04013056853169374</v>
+      </c>
+      <c r="G68">
+        <v>-0.02446904528421538</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>-0.003148719366648094</v>
+        <v>-0.0755321770333949</v>
       </c>
       <c r="C69">
-        <v>-0.03904201405335129</v>
+        <v>0.06794465193597725</v>
       </c>
       <c r="D69">
-        <v>0.06101588452262507</v>
+        <v>-0.008483674831869681</v>
       </c>
       <c r="E69">
-        <v>-0.004163612538251405</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>-0.02454896910888709</v>
+      </c>
+      <c r="F69">
+        <v>0.03158590675437069</v>
+      </c>
+      <c r="G69">
+        <v>-0.03971701238555946</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1884,146 +2304,200 @@
       <c r="E70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>0.03344559772733517</v>
+        <v>-0.1376409834510553</v>
       </c>
       <c r="C71">
-        <v>-0.1979798478602477</v>
+        <v>-0.2338115360458442</v>
       </c>
       <c r="D71">
-        <v>-0.1469608659180009</v>
+        <v>-0.006508647038409314</v>
       </c>
       <c r="E71">
-        <v>-0.00188211625187744</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>0.02456557523518996</v>
+      </c>
+      <c r="F71">
+        <v>0.008334601853349685</v>
+      </c>
+      <c r="G71">
+        <v>-0.03714871976411289</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>-0.001831804042438413</v>
+        <v>-0.08433500421263428</v>
       </c>
       <c r="C72">
-        <v>-0.04922621235088418</v>
+        <v>0.07315990051243346</v>
       </c>
       <c r="D72">
-        <v>0.1316774967540884</v>
+        <v>-0.008296776952262414</v>
       </c>
       <c r="E72">
-        <v>0.01797093955821996</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>-0.006136511923217523</v>
+      </c>
+      <c r="F72">
+        <v>-0.04110470950542449</v>
+      </c>
+      <c r="G72">
+        <v>-0.0137572604499921</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>0.04680903478340512</v>
+        <v>-0.3969346828900328</v>
       </c>
       <c r="C73">
-        <v>-0.1897777093691679</v>
+        <v>0.1170413055257705</v>
       </c>
       <c r="D73">
-        <v>0.1675102955677247</v>
+        <v>0.01742370574952262</v>
       </c>
       <c r="E73">
-        <v>0.09636208366643627</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>0.04688664939794025</v>
+      </c>
+      <c r="F73">
+        <v>-0.543993291449719</v>
+      </c>
+      <c r="G73">
+        <v>0.1854373720205887</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>0.0003833364947875441</v>
+        <v>-0.1101998569082948</v>
       </c>
       <c r="C74">
-        <v>-0.08680005856060787</v>
+        <v>0.1173401774261863</v>
       </c>
       <c r="D74">
-        <v>0.1533444953406502</v>
+        <v>-0.00950876395064299</v>
       </c>
       <c r="E74">
-        <v>0.00777398307807694</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>-0.01475146868131294</v>
+      </c>
+      <c r="F74">
+        <v>0.06992714681053858</v>
+      </c>
+      <c r="G74">
+        <v>-0.04920567983549382</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>0.004987653313968793</v>
+        <v>-0.2479719798918292</v>
       </c>
       <c r="C75">
-        <v>-0.1994687863558417</v>
+        <v>0.1577051367416283</v>
       </c>
       <c r="D75">
-        <v>0.2776154771648594</v>
+        <v>-0.02930866837042042</v>
       </c>
       <c r="E75">
-        <v>0.02564412535599508</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>-0.05069183365321114</v>
+      </c>
+      <c r="F75">
+        <v>0.1872682729696318</v>
+      </c>
+      <c r="G75">
+        <v>0.02849460638110902</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>-0.00350490305305368</v>
+        <v>-0.124492055321739</v>
       </c>
       <c r="C76">
-        <v>-0.1360751672858671</v>
+        <v>0.120555803182962</v>
       </c>
       <c r="D76">
-        <v>0.2215178490398861</v>
+        <v>-0.0203669215684774</v>
       </c>
       <c r="E76">
-        <v>-0.007825159506300248</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>-0.04940204991330003</v>
+      </c>
+      <c r="F76">
+        <v>0.1145401802902754</v>
+      </c>
+      <c r="G76">
+        <v>-0.02581485618438679</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>0.01165117883634707</v>
+        <v>-0.06527803587968714</v>
       </c>
       <c r="C77">
-        <v>-0.01695879036641287</v>
+        <v>0.06160685948589031</v>
       </c>
       <c r="D77">
-        <v>0.05001053880261976</v>
+        <v>0.01219607912493455</v>
       </c>
       <c r="E77">
-        <v>0.005006606372897606</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>0.04983310542811554</v>
+      </c>
+      <c r="F77">
+        <v>-0.01842374564168506</v>
+      </c>
+      <c r="G77">
+        <v>-0.04794950965098948</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>0.003825746173402189</v>
+        <v>-0.04023852700081371</v>
       </c>
       <c r="C78">
-        <v>-0.01124869660462009</v>
+        <v>0.05039734971565651</v>
       </c>
       <c r="D78">
-        <v>0.06473204546796682</v>
+        <v>0.005708338753907592</v>
       </c>
       <c r="E78">
-        <v>-0.002430865648843533</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>0.02170363293617059</v>
+      </c>
+      <c r="F78">
+        <v>-0.04658960352861802</v>
+      </c>
+      <c r="G78">
+        <v>-0.04133103290026499</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2037,78 +2511,108 @@
       <c r="E79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:5">
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>0.01593099862065776</v>
+        <v>-0.05315364871710875</v>
       </c>
       <c r="C80">
-        <v>-0.1235238271536408</v>
+        <v>0.06250863410860756</v>
       </c>
       <c r="D80">
-        <v>0.1570721645980613</v>
+        <v>0.01353321526850425</v>
       </c>
       <c r="E80">
-        <v>-0.9154569231618782</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>-0.03404267209713187</v>
+      </c>
+      <c r="F80">
+        <v>-0.06424932862033143</v>
+      </c>
+      <c r="G80">
+        <v>-0.8764180736995096</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>0.004106680576523835</v>
+        <v>-0.144126468171098</v>
       </c>
       <c r="C81">
-        <v>-0.1238759051490152</v>
+        <v>0.09522299438646588</v>
       </c>
       <c r="D81">
-        <v>0.1653807442972104</v>
+        <v>-0.01479896517448657</v>
       </c>
       <c r="E81">
-        <v>0.00549615065150174</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>-0.02850155878878636</v>
+      </c>
+      <c r="F81">
+        <v>0.1183620627612293</v>
+      </c>
+      <c r="G81">
+        <v>-0.0230410035986885</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>-0.09636090869664883</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>0.05162647747915088</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>-0.004605562261343868</v>
       </c>
       <c r="E82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>-0.07260495253346957</v>
+      </c>
+      <c r="F82">
+        <v>0.01024067475178484</v>
+      </c>
+      <c r="G82">
+        <v>-0.01203512521629009</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>0.006945148506870153</v>
+        <v>-0.03016494232805802</v>
       </c>
       <c r="C83">
-        <v>-0.02765575324436947</v>
+        <v>0.02028464127514297</v>
       </c>
       <c r="D83">
-        <v>0.02245621368600506</v>
+        <v>0.005219562082930092</v>
       </c>
       <c r="E83">
-        <v>0.004064445199692995</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>0.02514821310962885</v>
+      </c>
+      <c r="F83">
+        <v>-0.02411921725514828</v>
+      </c>
+      <c r="G83">
+        <v>-0.02874814804515353</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2122,197 +2626,269 @@
       <c r="E84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:5">
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>0.01178802394021349</v>
+        <v>-0.2223249270600827</v>
       </c>
       <c r="C85">
-        <v>-0.1535115533923454</v>
+        <v>0.1507039108753595</v>
       </c>
       <c r="D85">
-        <v>0.2623946728053902</v>
+        <v>-0.01781718365656191</v>
       </c>
       <c r="E85">
-        <v>0.03026434863869193</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>-0.09416340703703936</v>
+      </c>
+      <c r="F85">
+        <v>0.1641591205607558</v>
+      </c>
+      <c r="G85">
+        <v>0.04982859044329094</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>0.00698518533307639</v>
+        <v>-0.01007492591468476</v>
       </c>
       <c r="C86">
-        <v>-0.02679139812466208</v>
+        <v>0.01553518143398738</v>
       </c>
       <c r="D86">
-        <v>0.009614640568324001</v>
+        <v>0.01007360502382822</v>
       </c>
       <c r="E86">
-        <v>0.02210082134146458</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>0.03474111683277125</v>
+      </c>
+      <c r="F86">
+        <v>-0.03901774008508825</v>
+      </c>
+      <c r="G86">
+        <v>-0.06754743632523391</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>0.007383814219132912</v>
+        <v>-0.01948716761667916</v>
       </c>
       <c r="C87">
-        <v>-0.01337587087339412</v>
+        <v>0.02400094209343757</v>
       </c>
       <c r="D87">
-        <v>0.03899861521979887</v>
+        <v>0.0108504725128253</v>
       </c>
       <c r="E87">
-        <v>0.0006837318753607146</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>0.08283455067324197</v>
+      </c>
+      <c r="F87">
+        <v>-0.03240236287447928</v>
+      </c>
+      <c r="G87">
+        <v>-0.05696622172226303</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>0.02644559552200003</v>
+        <v>-0.08687947922033372</v>
       </c>
       <c r="C88">
-        <v>-0.03769279673089026</v>
+        <v>0.0656281557986742</v>
       </c>
       <c r="D88">
-        <v>0.03573781399031641</v>
+        <v>0.02306113732206404</v>
       </c>
       <c r="E88">
-        <v>0.00251445675821033</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>-0.01447239818315666</v>
+      </c>
+      <c r="F88">
+        <v>0.01462572486041027</v>
+      </c>
+      <c r="G88">
+        <v>-0.03479999646136974</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>0.06315530580630449</v>
+        <v>-0.2280077703732498</v>
       </c>
       <c r="C89">
-        <v>-0.3601248301408211</v>
+        <v>-0.3615295625790977</v>
       </c>
       <c r="D89">
-        <v>-0.2439866344055545</v>
+        <v>-0.005517568497802832</v>
       </c>
       <c r="E89">
-        <v>0.02162610047448604</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>-0.02126230945569368</v>
+      </c>
+      <c r="F89">
+        <v>0.02581797498736812</v>
+      </c>
+      <c r="G89">
+        <v>-0.03611302505100639</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>0.04851088923249244</v>
+        <v>-0.2007456884039067</v>
       </c>
       <c r="C90">
-        <v>-0.2794476658904358</v>
+        <v>-0.325479981271135</v>
       </c>
       <c r="D90">
-        <v>-0.2258400908663547</v>
+        <v>-0.009393007151573726</v>
       </c>
       <c r="E90">
-        <v>0.02162401192453604</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>-0.02095232844453645</v>
+      </c>
+      <c r="F90">
+        <v>0.0446518197715753</v>
+      </c>
+      <c r="G90">
+        <v>-0.006860637740353057</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>0.0007253477357275659</v>
+        <v>-0.1984807411141129</v>
       </c>
       <c r="C91">
-        <v>-0.1606537518905449</v>
+        <v>0.1417680910752796</v>
       </c>
       <c r="D91">
-        <v>0.2344433082189096</v>
+        <v>-0.02346269448996586</v>
       </c>
       <c r="E91">
-        <v>0.009460205411505267</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>-0.06912467375297142</v>
+      </c>
+      <c r="F91">
+        <v>0.1599411998112757</v>
+      </c>
+      <c r="G91">
+        <v>-0.01199328124023253</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>0.01433807479344371</v>
+        <v>-0.2057414340240356</v>
       </c>
       <c r="C92">
-        <v>-0.3134378098092699</v>
+        <v>-0.2608876202533026</v>
       </c>
       <c r="D92">
-        <v>-0.1018379139329291</v>
+        <v>-0.04590284624212496</v>
       </c>
       <c r="E92">
-        <v>0.01714064142545283</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>0.005615582297486612</v>
+      </c>
+      <c r="F92">
+        <v>0.07212090567612139</v>
+      </c>
+      <c r="G92">
+        <v>-0.07394648003404296</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>0.04595791604075947</v>
+        <v>-0.2304676397603402</v>
       </c>
       <c r="C93">
-        <v>-0.3143836187294948</v>
+        <v>-0.3240916396894904</v>
       </c>
       <c r="D93">
-        <v>-0.2164969301677827</v>
+        <v>-0.01681233819864704</v>
       </c>
       <c r="E93">
-        <v>0.04612481753442922</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>-0.004662837507101524</v>
+      </c>
+      <c r="F93">
+        <v>0.03758470757242601</v>
+      </c>
+      <c r="G93">
+        <v>0.0003138271571072213</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>0.02339913147400405</v>
+        <v>-0.3035075400853516</v>
       </c>
       <c r="C94">
-        <v>-0.2013440683721304</v>
+        <v>0.1914916018400876</v>
       </c>
       <c r="D94">
-        <v>0.2524872733125257</v>
+        <v>-0.01426748028343636</v>
       </c>
       <c r="E94">
-        <v>0.06164639758841391</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>-0.1468085712187905</v>
+      </c>
+      <c r="F94">
+        <v>0.5065079125704399</v>
+      </c>
+      <c r="G94">
+        <v>0.1497037711021205</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>-0.005427622361471474</v>
+        <v>-0.0841060533809577</v>
       </c>
       <c r="C95">
-        <v>-0.04889406940686673</v>
+        <v>0.07480667360522553</v>
       </c>
       <c r="D95">
-        <v>0.09236369897617266</v>
+        <v>-0.008067890229114619</v>
       </c>
       <c r="E95">
-        <v>0.1111970007908801</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>0.06375452948799709</v>
+      </c>
+      <c r="F95">
+        <v>-0.1576799206052898</v>
+      </c>
+      <c r="G95">
+        <v>0.07989394193493207</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2326,10 +2902,16 @@
       <c r="E96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2343,27 +2925,39 @@
       <c r="E97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:5">
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>0.007898921554306914</v>
+        <v>-0.1984482971821267</v>
       </c>
       <c r="C98">
-        <v>-0.1643271393853205</v>
+        <v>0.0426826860623103</v>
       </c>
       <c r="D98">
-        <v>0.1218862775488439</v>
+        <v>-0.01428172775702966</v>
       </c>
       <c r="E98">
-        <v>0.05670613714708269</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>0.06047983595939628</v>
+      </c>
+      <c r="F98">
+        <v>-0.249900927881128</v>
+      </c>
+      <c r="G98">
+        <v>0.03868448035783502</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2377,10 +2971,16 @@
       <c r="E99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2394,73 +2994,103 @@
       <c r="E100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>0.007179452212834387</v>
+        <v>-0.01046943164245892</v>
       </c>
       <c r="C101">
-        <v>-0.01791911806706549</v>
+        <v>0.01969040193627341</v>
       </c>
       <c r="D101">
-        <v>0.01128826755706612</v>
+        <v>0.007255808293121278</v>
       </c>
       <c r="E101">
-        <v>-0.007418182685928171</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>-0.007378756724685895</v>
+      </c>
+      <c r="F101">
+        <v>0.01050647006501844</v>
+      </c>
+      <c r="G101">
+        <v>-0.04034845790125644</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>0.01540555519622614</v>
+        <v>-0.1178106113819481</v>
       </c>
       <c r="C102">
-        <v>-0.09242494168351914</v>
+        <v>0.08495097868858609</v>
       </c>
       <c r="D102">
-        <v>0.1275998946292076</v>
+        <v>0.001785024429797084</v>
       </c>
       <c r="E102">
-        <v>0.01470607878176777</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>-0.02887345172558589</v>
+      </c>
+      <c r="F102">
+        <v>0.03474181067578515</v>
+      </c>
+      <c r="G102">
+        <v>0.0007565809395956488</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B103">
-        <v>0.001433438389998724</v>
+        <v>-0.003459575389425103</v>
       </c>
       <c r="C103">
-        <v>-0.01235775504863967</v>
+        <v>0.004867323665295727</v>
       </c>
       <c r="D103">
-        <v>0.02575148544163108</v>
+        <v>0.0002228973566530376</v>
       </c>
       <c r="E103">
-        <v>-0.0155426099225176</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5">
+        <v>0.001996703541294378</v>
+      </c>
+      <c r="F103">
+        <v>0.008486472697224936</v>
+      </c>
+      <c r="G103">
+        <v>-0.01757487988665787</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B104">
-        <v>0.9826396910676753</v>
+        <v>-0.0286956663716364</v>
       </c>
       <c r="C104">
-        <v>0.1265701680253256</v>
+        <v>-0.03894351923533643</v>
       </c>
       <c r="D104">
-        <v>-0.006869384326341115</v>
+        <v>0.987483664735357</v>
       </c>
       <c r="E104">
-        <v>-0.02520044397350954</v>
+        <v>-0.03851972419114238</v>
+      </c>
+      <c r="F104">
+        <v>0.0421379381659223</v>
+      </c>
+      <c r="G104">
+        <v>0.01063224900458427</v>
       </c>
     </row>
   </sheetData>
